--- a/Tablero de seguimiento2.xlsx
+++ b/Tablero de seguimiento2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C4D8F05-DDF6-B74D-8C5C-8E89C497C275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725F663F-2968-42AF-B173-4ABBDBEA5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -538,6 +538,51 @@
   </si>
   <si>
     <t xml:space="preserve">Jhonatan Pulido </t>
+  </si>
+  <si>
+    <t>El diseño de la BD debe ser revisado por el Líder Técnico para asegurar la escalabilidad (Req. No Funcional)</t>
+  </si>
+  <si>
+    <t>Tarea de backend. La dependencia con A23 es crítica para el inicio</t>
+  </si>
+  <si>
+    <t>Tarea clave para mitigar el Riesgo 7 (Disponibilidad). Se debe incluir la configuración de copias de seguridad</t>
+  </si>
+  <si>
+    <t>Punto de integración que suele generar errores técnicos. Se debe asignar tiempo para la corrección</t>
+  </si>
+  <si>
+    <t>Tarea crítica para el entregable principal (Mapa Emocional). Se debe considerar el Riesgo 8 (Rendimiento)</t>
+  </si>
+  <si>
+    <t>Primera validación end-to-end antes de las pruebas formales</t>
+  </si>
+  <si>
+    <t>Tarea clave para asegurar el cumplimiento de los requisitos funcionales</t>
+  </si>
+  <si>
+    <t>Mitiga el Riesgo 14 (Usabilidad Baja). Se debe coordinar el reclutamiento de participantes con anticipación</t>
+  </si>
+  <si>
+    <t>Tarea buffer para corregir los hallazgos de A29 y A30. La duración es corta; podría requerir más tiempo</t>
+  </si>
+  <si>
+    <t>La redacción debe ser simultánea al desarrollo para ser precisa y mitigar el Riesgo 10 (Mantenibilidad)</t>
+  </si>
+  <si>
+    <t>Esfuerzo necesario para asegurar el conocimiento del sistema</t>
+  </si>
+  <si>
+    <t>Tarea final de infraestructura. Se requiere la aprobación del Gerente de proyecto para el lanzamiento</t>
+  </si>
+  <si>
+    <t>Cierre formal con el Patrocinador. Se debe obtener la firma de aceptación del producto</t>
+  </si>
+  <si>
+    <t>Tarea clave para la entrega del valor. Se debe asegurar la alineación con la Investigación (A08)</t>
+  </si>
+  <si>
+    <t>Tarea final con el fin de estructurar y detallar lo realizado en el proyecto</t>
   </si>
 </sst>
 </file>
@@ -705,14 +750,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFD9D9D9"/>
           <bgColor rgb="FFD9D9D9"/>
         </patternFill>
@@ -731,6 +768,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFC6EFCE"/>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -974,37 +1019,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,28 +1631,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.76171875" customWidth="1"/>
-    <col min="3" max="3" width="30.9375" customWidth="1"/>
-    <col min="4" max="4" width="25.69140625" customWidth="1"/>
-    <col min="5" max="7" width="25.55859375" customWidth="1"/>
-    <col min="8" max="8" width="14.390625" customWidth="1"/>
-    <col min="9" max="9" width="12.23828125" customWidth="1"/>
-    <col min="10" max="10" width="11.8359375" customWidth="1"/>
-    <col min="11" max="11" width="9.01171875" customWidth="1"/>
-    <col min="12" max="13" width="11.703125" customWidth="1"/>
-    <col min="14" max="14" width="44.12109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="82.328125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="10.76171875" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.90625" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="7" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="13" width="11.7265625" customWidth="1"/>
+    <col min="14" max="14" width="44.08984375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="82.36328125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1692,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>IF(P3=100,"Completada",IF(K3&gt;0,"Retrasada",IF(P3=0,"Pendiente","En curso")))</f>
+        <f t="shared" ref="M3:M29" si="0">IF(P3=100,"Completada",IF(K3&gt;0,"Retrasada",IF(P3=0,"Pendiente","En curso")))</f>
         <v>Completada</v>
       </c>
       <c r="N3" s="4" t="s">
@@ -1707,7 +1752,7 @@
       </c>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:17" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1742,7 +1787,7 @@
         <v>18</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f>IF(P4=100,"Completada",IF(K4&gt;0,"Retrasada",IF(P4=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -1752,12 +1797,12 @@
         <v>137</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P29" si="0">IF(F4=0,0,(G4/F4)*100)</f>
+        <f t="shared" ref="P4:P29" si="1">IF(F4=0,0,(G4/F4)*100)</f>
         <v>100</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1792,7 +1837,7 @@
         <v>18</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f>IF(P5=100,"Completada",IF(K5&gt;0,"Retrasada",IF(P5=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N5" s="4" t="s">
@@ -1802,12 +1847,12 @@
         <v>138</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1842,7 +1887,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f>IF(P6=100,"Completada",IF(K6&gt;0,"Retrasada",IF(P6=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -1852,12 +1897,12 @@
         <v>139</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1892,7 +1937,7 @@
         <v>18</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f>IF(P7=100,"Completada",IF(K7&gt;0,"Retrasada",IF(P7=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N7" s="4" t="s">
@@ -1902,12 +1947,12 @@
         <v>140</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1942,7 +1987,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f>IF(P8=100,"Completada",IF(K8&gt;0,"Retrasada",IF(P8=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -1952,12 +1997,12 @@
         <v>141</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1992,7 +2037,7 @@
         <v>18</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>IF(P9=100,"Completada",IF(K9&gt;0,"Retrasada",IF(P9=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N9" s="4" t="s">
@@ -2006,7 +2051,7 @@
       </c>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -2041,7 +2086,7 @@
         <v>18</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f>IF(P10=100,"Completada",IF(K10&gt;0,"Retrasada",IF(P10=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N10" s="4" t="s">
@@ -2055,7 +2100,7 @@
       </c>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2090,7 +2135,7 @@
         <v>18</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f>IF(P11=100,"Completada",IF(K11&gt;0,"Retrasada",IF(P11=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N11" s="4" t="s">
@@ -2100,12 +2145,12 @@
         <v>144</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
@@ -2140,7 +2185,7 @@
         <v>18</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f>IF(P12=100,"Completada",IF(K12&gt;0,"Retrasada",IF(P12=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N12" s="4" t="s">
@@ -2150,12 +2195,12 @@
         <v>145</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
@@ -2190,7 +2235,7 @@
         <v>18</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f>IF(P13=100,"Completada",IF(K13&gt;0,"Retrasada",IF(P13=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N13" s="4" t="s">
@@ -2204,7 +2249,7 @@
       </c>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
@@ -2239,7 +2284,7 @@
         <v>18</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f>IF(P14=100,"Completada",IF(K14&gt;0,"Retrasada",IF(P14=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N14" s="4" t="s">
@@ -2253,7 +2298,7 @@
       </c>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -2288,19 +2333,21 @@
         <v>18</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f>IF(P15=100,"Completada",IF(K15&gt;0,"Retrasada",IF(P15=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="O15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="P15" s="2">
         <v>100</v>
       </c>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
@@ -2335,19 +2382,21 @@
         <v>18</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f>IF(P16=100,"Completada",IF(K16&gt;0,"Retrasada",IF(P16=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="O16" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="P16" s="2">
         <v>100</v>
       </c>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>69</v>
       </c>
@@ -2382,19 +2431,21 @@
         <v>18</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f>IF(P17=100,"Completada",IF(K17&gt;0,"Retrasada",IF(P17=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="O17" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="P17" s="2">
         <v>100</v>
       </c>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>73</v>
       </c>
@@ -2429,19 +2480,21 @@
         <v>18</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f>IF(P18=100,"Completada",IF(K18&gt;0,"Retrasada",IF(P18=0,"Pendiente","En curso")))</f>
+        <f t="shared" si="0"/>
         <v>Completada</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="P18" s="2">
         <v>100</v>
       </c>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
@@ -2476,19 +2529,21 @@
         <v>18</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f>IF(P19=100,"Completada",IF(K19&gt;0,"Retrasada",IF(P19=0,"Pendiente","En curso")))</f>
-        <v>En curso</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="O19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="P19" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
@@ -2523,19 +2578,21 @@
         <v>18</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f>IF(P20=100,"Completada",IF(K20&gt;0,"Retrasada",IF(P20=0,"Pendiente","En curso")))</f>
-        <v>En curso</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="O20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="P20" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
@@ -2570,20 +2627,21 @@
         <v>18</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f>IF(P21=100,"Completada",IF(K21&gt;0,"Retrasada",IF(P21=0,"Pendiente","En curso")))</f>
-        <v>Pendiente</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="O21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="P21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>88</v>
       </c>
@@ -2618,20 +2676,21 @@
         <v>18</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f>IF(P22=100,"Completada",IF(K22&gt;0,"Retrasada",IF(P22=0,"Pendiente","En curso")))</f>
-        <v>Pendiente</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="P22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>92</v>
       </c>
@@ -2666,20 +2725,21 @@
         <v>18</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f>IF(P23=100,"Completada",IF(K23&gt;0,"Retrasada",IF(P23=0,"Pendiente","En curso")))</f>
-        <v>Pendiente</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="P23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>96</v>
       </c>
@@ -2714,20 +2774,21 @@
         <v>18</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f>IF(P24=100,"Completada",IF(K24&gt;0,"Retrasada",IF(P24=0,"Pendiente","En curso")))</f>
-        <v>Pendiente</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="O24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="P24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>100</v>
       </c>
@@ -2762,20 +2823,21 @@
         <v>18</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f>IF(P25=100,"Completada",IF(K25&gt;0,"Retrasada",IF(P25=0,"Pendiente","En curso")))</f>
-        <v>Pendiente</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="O25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="P25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>104</v>
       </c>
@@ -2810,20 +2872,21 @@
         <v>18</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f>IF(P26=100,"Completada",IF(K26&gt;0,"Retrasada",IF(P26=0,"Pendiente","En curso")))</f>
-        <v>Pendiente</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="O26" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="P26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>108</v>
       </c>
@@ -2858,20 +2921,21 @@
         <v>18</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f>IF(P27=100,"Completada",IF(K27&gt;0,"Retrasada",IF(P27=0,"Pendiente","En curso")))</f>
-        <v>Pendiente</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="O27" s="4"/>
+      <c r="O27" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="P27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>112</v>
       </c>
@@ -2906,20 +2970,21 @@
         <v>18</v>
       </c>
       <c r="M28" s="2" t="str">
-        <f>IF(P28=100,"Completada",IF(K28&gt;0,"Retrasada",IF(P28=0,"Pendiente","En curso")))</f>
-        <v>Pendiente</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="O28" s="4"/>
+      <c r="O28" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="P28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>116</v>
       </c>
@@ -2954,155 +3019,156 @@
         <v>18</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f>IF(P29=100,"Completada",IF(K29&gt;0,"Retrasada",IF(P29=0,"Pendiente","En curso")))</f>
-        <v>Pendiente</v>
+        <f t="shared" si="0"/>
+        <v>Completada</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="O29" s="4"/>
+      <c r="O29" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="P29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q29" s="2"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
@@ -3119,29 +3185,29 @@
       <formula>$P2=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q2 Q4:Q29">
+    <cfRule type="expression" dxfId="6" priority="22" stopIfTrue="1">
+      <formula>$K2&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="23" stopIfTrue="1">
+      <formula>$P2=100</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="24" stopIfTrue="1">
+      <formula>AND($P2&gt;0, $P2&lt;100, $K2=0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="25" stopIfTrue="1">
+      <formula>$P2=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$P3=100</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND($P3&gt;0, $P3&lt;100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$P3=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2 Q4:Q29">
-    <cfRule type="expression" dxfId="3" priority="22" stopIfTrue="1">
-      <formula>$K2&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="23" stopIfTrue="1">
-      <formula>$P2=100</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="24" stopIfTrue="1">
-      <formula>AND($P2&gt;0, $P2&lt;100, $K2=0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="25" stopIfTrue="1">
-      <formula>$P2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3155,9 +3221,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -3165,7 +3231,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -3173,7 +3239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -3181,7 +3247,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -3189,7 +3255,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3197,7 +3263,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -3205,7 +3271,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>131</v>
       </c>
